--- a/sample/emp.xlsx
+++ b/sample/emp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pshtm\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95885175-CBCE-4E8E-BB60-3EA95D59D8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BDF29A-8BC0-49F0-8E1B-FBEEC7F95DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E515130D-A07C-4521-95D3-B5DA3DFEAD11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>emp_first_name</t>
   </si>
@@ -54,22 +54,19 @@
     <t>department_id</t>
   </si>
   <si>
-    <t>emp_uid</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
-    <t>www</t>
-  </si>
-  <si>
-    <t>xxw@gmail.com</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>ee@gmail.com</t>
+    <t>misid</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>22@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,10 +483,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -497,59 +494,35 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>122121212</v>
+        <v>2222222222</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>25</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>911</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>122121212</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{E7F445F4-C1F7-48E5-B5DD-AF665D43EA74}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{D5AFFADD-23E1-4314-982F-8AFFA5FDEBAC}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{49242734-D2C6-4EB5-8EC0-91499A7824DF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/sample/emp.xlsx
+++ b/sample/emp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pshtm\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BDF29A-8BC0-49F0-8E1B-FBEEC7F95DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D088B546-0107-43EA-ACCB-1D360E87DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E515130D-A07C-4521-95D3-B5DA3DFEAD11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>emp_first_name</t>
   </si>
@@ -60,13 +60,16 @@
     <t>misid</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>22@gmail.com</t>
+    <t>xd</t>
+  </si>
+  <si>
+    <t>xd@gmail.com</t>
+  </si>
+  <si>
+    <t>dept one</t>
+  </si>
+  <si>
+    <t>job one</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968078CA-208E-45C1-A0F0-073D22862F4F}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,29 +497,26 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
-        <v>2222222222</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>911</v>
-      </c>
       <c r="G2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/sample/emp.xlsx
+++ b/sample/emp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pshtm\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D088B546-0107-43EA-ACCB-1D360E87DD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F71072F-A80E-444F-B05E-C0533800A8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E515130D-A07C-4521-95D3-B5DA3DFEAD11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>emp_first_name</t>
   </si>
@@ -60,16 +60,22 @@
     <t>misid</t>
   </si>
   <si>
-    <t>xd</t>
-  </si>
-  <si>
-    <t>xd@gmail.com</t>
-  </si>
-  <si>
     <t>dept one</t>
   </si>
   <si>
     <t>job one</t>
+  </si>
+  <si>
+    <t>xo@gmail.com</t>
+  </si>
+  <si>
+    <t>xo1</t>
+  </si>
+  <si>
+    <t>xo2</t>
+  </si>
+  <si>
+    <t>xo1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -449,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968078CA-208E-45C1-A0F0-073D22862F4F}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -494,35 +500,62 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>1234567890</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>121</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>101</v>
-      </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2345678900</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>8</v>
+      </c>
+      <c r="G3">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{49242734-D2C6-4EB5-8EC0-91499A7824DF}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{3AA61140-4218-4699-9F36-8B5E6299F223}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>